--- a/REVER_DailyTracker_20200708.xlsx
+++ b/REVER_DailyTracker_20200708.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7A924B-A131-450A-956C-0D512FEA3204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CFE127-6490-488B-B19A-D06699BD8439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="10884" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="73">
   <si>
     <t>Task</t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>2. Working on Password management to store at Database.</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>Missing DB objects documented</t>
   </si>
 </sst>
 </file>
@@ -301,7 +307,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +328,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -400,10 +414,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -440,9 +457,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{EEA5FFCC-0241-4958-80FE-A5D35CC5458F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -757,22 +779,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -793,7 +815,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -803,8 +825,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -816,7 +838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -827,10 +849,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -844,9 +866,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -860,9 +882,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -876,8 +898,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -894,19 +916,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -924,13 +946,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -944,7 +966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -958,7 +980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -966,7 +988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -974,12 +996,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -987,7 +1009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -998,7 +1020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1009,7 +1031,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -1020,12 +1042,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1036,7 +1058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1047,12 +1069,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1060,7 +1082,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1068,7 +1090,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1076,7 +1098,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1084,12 +1106,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1097,7 +1119,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1105,7 +1127,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1113,7 +1135,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1121,12 +1143,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1134,7 +1156,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1142,7 +1164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1150,7 +1172,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1158,7 +1180,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1166,12 +1188,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="30">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1179,7 +1201,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1187,7 +1209,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" ht="45">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1195,7 +1217,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7">
       <c r="D120" t="s">
         <v>30</v>
       </c>
@@ -1203,7 +1225,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:7" ht="30">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1211,12 +1233,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:7">
       <c r="G124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:7" ht="30">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1224,7 +1246,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" ht="30">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1232,7 +1254,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7">
       <c r="D132" t="s">
         <v>30</v>
       </c>
@@ -1240,7 +1262,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" ht="45">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1248,7 +1270,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:7" ht="60">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1256,7 +1278,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:7" ht="75">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1264,7 +1286,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:7">
       <c r="D146" t="s">
         <v>30</v>
       </c>
@@ -1272,7 +1294,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:7">
       <c r="G147" t="s">
         <v>70</v>
       </c>
@@ -1292,18 +1314,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1326,7 +1348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1335,7 +1357,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1344,46 +1366,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1400,22 +1422,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1438,16 +1460,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>44020</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1456,46 +1490,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1516,18 +1550,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1550,7 +1584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1559,7 +1593,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1568,46 +1602,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1628,18 +1662,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1662,7 +1696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1671,7 +1705,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1680,46 +1714,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1740,18 +1774,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1774,7 +1808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1795,7 +1829,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1804,46 +1838,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1864,18 +1898,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1898,7 +1932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1907,7 +1941,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1916,46 +1950,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1976,18 +2010,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2010,7 +2044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2019,7 +2053,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2028,46 +2062,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2088,18 +2122,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2122,7 +2156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2131,7 +2165,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2140,46 +2174,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2200,18 +2234,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2234,7 +2268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2243,7 +2277,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2252,46 +2286,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200708.xlsx
+++ b/REVER_DailyTracker_20200708.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CFE127-6490-488B-B19A-D06699BD8439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D4BB4C-4483-43C2-B44E-8A4CA1BD9838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="75">
   <si>
     <t>Task</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>Missing DB objects documented</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>Invoice Update Corrections</t>
   </si>
 </sst>
 </file>
@@ -783,15 +789,15 @@
       <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -826,7 +832,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -852,7 +858,7 @@
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -884,7 +890,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -952,7 +958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30">
+    <row r="25" spans="2:7" ht="28.8">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -966,7 +972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30">
+    <row r="28" spans="2:7" ht="28.8">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -980,7 +986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45">
+    <row r="32" spans="2:7" ht="43.2">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -988,7 +994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="45">
+    <row r="36" spans="4:7" ht="28.8">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1009,7 +1015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="30">
+    <row r="44" spans="4:7" ht="28.8">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1020,7 +1026,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="30">
+    <row r="47" spans="4:7" ht="28.8">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="105">
+    <row r="54" spans="4:7" ht="72">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1074,7 +1080,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="75">
+    <row r="60" spans="4:7" ht="72">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="60">
+    <row r="64" spans="4:7" ht="57.6">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1090,7 +1096,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="60">
+    <row r="67" spans="4:7" ht="43.2">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="45">
+    <row r="71" spans="4:7" ht="28.8">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
@@ -1127,7 +1133,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="45">
+    <row r="79" spans="4:7" ht="28.8">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1143,12 +1149,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="30">
+    <row r="84" spans="4:7" ht="28.8">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="60">
+    <row r="88" spans="4:7" ht="57.6">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1164,7 +1170,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="45">
+    <row r="97" spans="4:7" ht="43.2">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="60">
+    <row r="100" spans="4:7" ht="43.2">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1193,7 +1199,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="30">
+    <row r="108" spans="4:7" ht="28.8">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1209,7 +1215,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="45">
+    <row r="116" spans="4:7" ht="28.8">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="30">
+    <row r="123" spans="4:7" ht="28.8">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="30">
+    <row r="126" spans="4:7" ht="28.8">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1246,7 +1252,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="30">
+    <row r="129" spans="4:7" ht="28.8">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="45">
+    <row r="135" spans="4:7" ht="28.8">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="60">
+    <row r="139" spans="4:7" ht="43.2">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1278,7 +1284,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="75">
+    <row r="143" spans="4:7" ht="43.2">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1314,15 +1320,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1422,19 +1428,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1550,15 +1556,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1658,19 +1664,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1699,9 +1705,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.8</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -1774,15 +1786,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1898,15 +1910,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2010,15 +2022,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2122,15 +2134,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2234,15 +2246,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
